--- a/fe_client/Assets/ResourcesPrivate/03.terrain/90.demo/prefab/setting/sheet_map_setting.xlsx
+++ b/fe_client/Assets/ResourcesPrivate/03.terrain/90.demo/prefab/setting/sheet_map_setting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>초반 인트로 대화</t>
+  </si>
+  <si>
+    <t>demo/script_03.enemy</t>
+  </si>
+  <si>
+    <t>적 관련 이벤트 셋팅</t>
+  </si>
+  <si>
+    <t>demo/script_04.villiage</t>
+  </si>
+  <si>
+    <t>마을 방문 관련 이벤트 셋팅</t>
   </si>
 </sst>
 </file>
@@ -31958,6 +31970,22 @@
         <v>85</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
